--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
     <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
@@ -27,18 +27,9 @@
     <t>Password</t>
   </si>
   <si>
-    <t>testuser_1</t>
-  </si>
-  <si>
-    <t>Test@123</t>
-  </si>
-  <si>
     <t>Browser</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
     <t>Product Type</t>
   </si>
   <si>
@@ -96,12 +87,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Framework_001</t>
-  </si>
-  <si>
-    <t>Framework_002</t>
-  </si>
-  <si>
     <t>iMacs</t>
   </si>
   <si>
@@ -118,6 +103,21 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>gc</t>
+  </si>
+  <si>
+    <t>auto.test@yopmail.com</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>Purchase</t>
   </si>
 </sst>
 </file>
@@ -125,7 +125,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,7 +206,6 @@
   <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -215,6 +214,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,140 +533,140 @@
     <col min="9" max="9" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.85546875" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>25</v>
+      <c r="M1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -679,10 +679,10 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId22" ref="C2"/>
-    <hyperlink r:id="rId23" ref="M2"/>
-    <hyperlink r:id="rId24" ref="C3"/>
-    <hyperlink r:id="rId25" ref="M3"/>
+    <hyperlink display="Test@123" r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="M2"/>
+    <hyperlink r:id="rId3" ref="M3"/>
+    <hyperlink display="Test@123" r:id="rId4" ref="C3"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
